--- a/app/upload_folder/exicon.xlsx
+++ b/app/upload_folder/exicon.xlsx
@@ -446,37 +446,37 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>applicant_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>shares_applied</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>application_amount</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>shares_allotted</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>amount_adjusted</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>error</t>
         </is>
       </c>
     </row>
@@ -531,26 +531,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DINESHCHANDRA VALAMCHAND SANGHAVI</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>7100</v>
-      </c>
-      <c r="E4" t="n">
-        <v>142</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>HNI</t>
-        </is>
-      </c>
+          <t>unknown error</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -566,26 +554,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DINESHCHANDRA VALAMCHAND SANGHAVI (HUF)</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>7100</v>
-      </c>
-      <c r="E5" t="n">
-        <v>142</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>HNI</t>
-        </is>
-      </c>
+          <t>unknown error</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -599,17 +575,17 @@
           <t>ANDPS8030N</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -624,26 +600,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>KALAVATIBEN D SANGHVI</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>7100</v>
-      </c>
-      <c r="E7" t="n">
-        <v>142</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>HNI</t>
-        </is>
-      </c>
+          <t>unknown error</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -657,17 +621,17 @@
           <t>HQTPS3054Q</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -680,17 +644,17 @@
           <t>BNRPS5275G</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -704,14 +668,26 @@
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PRIYANK DINESHCHANDRA SANGHAVI (HUF)</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>7100</v>
+      </c>
+      <c r="F10" t="n">
+        <v>142</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>unknown error</t>
+          <t>HNI</t>
         </is>
       </c>
     </row>
@@ -728,26 +704,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RUPALBEN PRIYANKKUMAR SANGHAVI</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>7100</v>
-      </c>
-      <c r="E11" t="n">
-        <v>142</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>HNI</t>
-        </is>
-      </c>
+          <t>unknown error</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -762,14 +726,26 @@
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ARYA SHRENIKKUMAR SHAH</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>100</v>
+      </c>
+      <c r="F12" t="n">
+        <v>142</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>unknown error</t>
+          <t>Retail</t>
         </is>
       </c>
     </row>
@@ -784,29 +760,29 @@
           <t>OMOPS4184K</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NAKSHI SHRENIKBHAI SHAH</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>100</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>142</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>Retail</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -819,17 +795,17 @@
           <t>OMOPS4188F</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -842,17 +818,17 @@
           <t>AFQPS1220R</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -867,26 +843,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SHRENIKKUMAR RAMESHCHANDRA SHAH (HUF)</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>100</v>
-      </c>
-      <c r="E16" t="n">
-        <v>142</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Retail</t>
-        </is>
-      </c>
+          <t>unknown error</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -902,26 +866,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PRADEEP CHORULAL BAID HUF .</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>7100</v>
-      </c>
-      <c r="E17" t="n">
-        <v>142</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>HNI</t>
-        </is>
-      </c>
+          <t>unknown error</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -935,17 +887,17 @@
           <t>BBHPB9929E</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -958,17 +910,17 @@
           <t>AABHK5590C</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -981,17 +933,17 @@
           <t>BCSPJ6066J</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1004,17 +956,17 @@
           <t>ACFPJ3152P</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1028,14 +980,26 @@
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>JITENDRAKUMAR JAIN (HUF)</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>7100</v>
+      </c>
+      <c r="F22" t="n">
+        <v>142</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>unknown error</t>
+          <t>HNI</t>
         </is>
       </c>
     </row>
@@ -1050,17 +1014,17 @@
           <t>AJWPJ7672A</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1073,17 +1037,17 @@
           <t>AIMPS2949A</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1096,17 +1060,17 @@
           <t>QPCPS4137F</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1120,14 +1084,26 @@
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SHREYAL SHAH</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>100</v>
+      </c>
+      <c r="F26" t="n">
+        <v>142</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>unknown error</t>
+          <t>Retail</t>
         </is>
       </c>
     </row>
@@ -1142,17 +1118,17 @@
           <t>GAGPS2484J</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1166,14 +1142,26 @@
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NITINKUMAR SHAH</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>100</v>
+      </c>
+      <c r="F28" t="n">
+        <v>142</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>unknown error</t>
+          <t>Retail</t>
         </is>
       </c>
     </row>
@@ -1190,26 +1178,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PARTH NALINKUMAR JOGANI</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>7100</v>
-      </c>
-      <c r="E29" t="n">
-        <v>142</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>HNI</t>
-        </is>
-      </c>
+          <t>unknown error</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -1223,17 +1199,17 @@
           <t>AQVPJ5609F</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1246,17 +1222,17 @@
           <t>CWAPS4803D</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1269,17 +1245,17 @@
           <t>ABNPJ1648R</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1292,17 +1268,17 @@
           <t>AAQPJ7432D</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1315,17 +1291,17 @@
           <t>AABHN1656A</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1339,14 +1315,26 @@
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>CHIRAGBHAI MAHASUKHRAY MEHTA</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>100</v>
+      </c>
+      <c r="F35" t="n">
+        <v>142</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>unknown error</t>
+          <t>Retail</t>
         </is>
       </c>
     </row>
@@ -1361,17 +1349,17 @@
           <t>CCZPM2734C</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1384,17 +1372,17 @@
           <t>GVOPM4866D</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1407,17 +1395,17 @@
           <t>GVOPM4910G</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1430,17 +1418,17 @@
           <t>BLUPS7162 M</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Maximum retries reached</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Maximum retries reached</t>
-        </is>
-      </c>
+      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1453,17 +1441,17 @@
           <t>COZPS7280F</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1476,17 +1464,17 @@
           <t>AAPHP9267B</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1499,17 +1487,17 @@
           <t>KRTPS4143E</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1522,17 +1510,17 @@
           <t>AFQPS1559B</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1545,17 +1533,17 @@
           <t>AAFHP2358P</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1569,14 +1557,26 @@
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>SAJNI H SHAH</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>7100</v>
+      </c>
+      <c r="F45" t="n">
+        <v>142</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>unknown error</t>
+          <t>HNI</t>
         </is>
       </c>
     </row>
@@ -1593,26 +1593,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HEMAL MAHENDRA ZAVERI HUF</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>7100</v>
-      </c>
-      <c r="E46" t="n">
-        <v>142</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>HNI</t>
-        </is>
-      </c>
+          <t>unknown error</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -1626,17 +1614,17 @@
           <t>AADPZ2132M</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1651,26 +1639,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>YATRI HEMAL ZAVERI</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>7100</v>
-      </c>
-      <c r="E48" t="n">
-        <v>142</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>HNI</t>
-        </is>
-      </c>
+          <t>unknown error</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -1685,14 +1661,26 @@
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>RAKESH V SANGHAVI</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>7100</v>
+      </c>
+      <c r="F49" t="n">
+        <v>142</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>unknown error</t>
+          <t>HNI</t>
         </is>
       </c>
     </row>
@@ -1707,17 +1695,17 @@
           <t>ACIPS4570K</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1730,17 +1718,17 @@
           <t>AAGHS6497D</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1753,17 +1741,17 @@
           <t>AQPPS7173P</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1778,26 +1766,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DARSHAN SAMIR SHAH</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>7100</v>
-      </c>
-      <c r="E53" t="n">
-        <v>142</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>HNI</t>
-        </is>
-      </c>
+          <t>unknown error</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
@@ -1811,17 +1787,17 @@
           <t>AFSPS3545M</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1834,17 +1810,17 @@
           <t>AAHHK5100J</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1858,14 +1834,26 @@
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>NARENDRA CHANDULAL SHAH (HUF) .</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>7100</v>
+      </c>
+      <c r="F56" t="n">
+        <v>142</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>unknown error</t>
+          <t>HNI</t>
         </is>
       </c>
     </row>
@@ -1880,17 +1868,17 @@
           <t>DEPPS1503N</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1903,17 +1891,17 @@
           <t>AALHB6126K</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1926,17 +1914,17 @@
           <t>AGIPD6853G</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1949,17 +1937,17 @@
           <t>BKXPSO1O2F</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1972,17 +1960,17 @@
           <t>GOBPS4079L</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1995,17 +1983,17 @@
           <t>BHKPC3384H</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2019,14 +2007,26 @@
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>VANSH CHUDGAR</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>7100</v>
+      </c>
+      <c r="F63" t="n">
+        <v>142</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>unknown error</t>
+          <t>HNI</t>
         </is>
       </c>
     </row>
@@ -2041,17 +2041,17 @@
           <t>AAPHP9943Q</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2064,17 +2064,17 @@
           <t>AHDPR8457J</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2087,17 +2087,17 @@
           <t>AKFPR2243B</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2110,17 +2110,17 @@
           <t>BZJPR5781A</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2133,17 +2133,17 @@
           <t>ALCPR4923Q</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2157,14 +2157,26 @@
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>SHAMBHUBHAI DESAI</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>100</v>
+      </c>
+      <c r="F69" t="n">
+        <v>142</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>unknown error</t>
+          <t>Retail</t>
         </is>
       </c>
     </row>
@@ -2179,17 +2191,17 @@
           <t>BZJPR5793N</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>unknown error</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>unknown error</t>
-        </is>
-      </c>
+      <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2203,14 +2215,26 @@
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>VINOD CHANDIRAM RAGHANI HUF</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>100</v>
+      </c>
+      <c r="F71" t="n">
+        <v>142</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>unknown error</t>
+          <t>Retail</t>
         </is>
       </c>
     </row>
@@ -2227,26 +2251,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>MANISHA PUNJABI</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>100</v>
-      </c>
-      <c r="E72" t="n">
-        <v>142</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Retail</t>
-        </is>
-      </c>
+          <t>unknown error</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
     </row>
   </sheetData>
